--- a/analises/2023/analise_descritiva/dados/sint_resumo_por_mencoes_lgbtqiamais_2023.xlsx
+++ b/analises/2023/analise_descritiva/dados/sint_resumo_por_mencoes_lgbtqiamais_2023.xlsx
@@ -34,7 +34,7 @@
     <t>taxa_sucesso</t>
   </si>
   <si>
-    <t>valor_sucesso</t>
+    <t>arrecadado_sucesso</t>
   </si>
   <si>
     <t>media_sucesso</t>

--- a/analises/2023/analise_descritiva/dados/sint_resumo_por_mencoes_lgbtqiamais_2023.xlsx
+++ b/analises/2023/analise_descritiva/dados/sint_resumo_por_mencoes_lgbtqiamais_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
   <si>
     <t>geral_modalidade</t>
   </si>
@@ -47,6 +47,15 @@
   </si>
   <si>
     <t>max_sucesso</t>
+  </si>
+  <si>
+    <t>apoio_medio</t>
+  </si>
+  <si>
+    <t>contribuicoes</t>
+  </si>
+  <si>
+    <t>media_contribuicoes</t>
   </si>
   <si>
     <t>aon</t>
@@ -419,7 +428,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:N7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -434,7 +443,7 @@
     <col min="11" max="11" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:14">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -468,10 +477,19 @@
       <c r="K1" s="3" t="s">
         <v>10</v>
       </c>
+      <c r="L1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:14">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B2" t="b">
         <v>0</v>
@@ -483,10 +501,10 @@
         <v>772</v>
       </c>
       <c r="E2" s="1">
-        <v>0.9385767790262173</v>
+        <v>93.85767790262173</v>
       </c>
       <c r="F2" s="1">
-        <v>0.6161213088587391</v>
+        <v>61.6121308858739</v>
       </c>
       <c r="G2" s="2">
         <v>22460722.20408649</v>
@@ -503,10 +521,19 @@
       <c r="K2" s="2">
         <v>679297.6600721752</v>
       </c>
+      <c r="L2">
+        <v>91.42267259885418</v>
+      </c>
+      <c r="M2">
+        <v>245680</v>
+      </c>
+      <c r="N2">
+        <v>318.2383419689119</v>
+      </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:14">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B3" t="b">
         <v>1</v>
@@ -518,10 +545,10 @@
         <v>58</v>
       </c>
       <c r="E3" s="1">
-        <v>0.06142322097378277</v>
+        <v>6.142322097378277</v>
       </c>
       <c r="F3" s="1">
-        <v>0.7073170731707317</v>
+        <v>70.73170731707317</v>
       </c>
       <c r="G3" s="2">
         <v>1602557.623236534</v>
@@ -538,10 +565,19 @@
       <c r="K3" s="2">
         <v>264456.5194757923</v>
       </c>
+      <c r="L3">
+        <v>89.66360561945585</v>
+      </c>
+      <c r="M3">
+        <v>17873</v>
+      </c>
+      <c r="N3">
+        <v>308.1551724137931</v>
+      </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:14">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B4" t="b">
         <v>0</v>
@@ -553,10 +589,10 @@
         <v>1249</v>
       </c>
       <c r="E4" s="1">
-        <v>0.9080381471389646</v>
+        <v>90.80381471389646</v>
       </c>
       <c r="F4" s="1">
-        <v>0.9369842460615154</v>
+        <v>93.69842460615155</v>
       </c>
       <c r="G4" s="2">
         <v>16220233.31339668</v>
@@ -573,10 +609,19 @@
       <c r="K4" s="2">
         <v>708972.7845446636</v>
       </c>
+      <c r="L4">
+        <v>89.12265074751335</v>
+      </c>
+      <c r="M4">
+        <v>181999</v>
+      </c>
+      <c r="N4">
+        <v>145.7157726180945</v>
+      </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:14">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B5" t="b">
         <v>1</v>
@@ -588,10 +633,10 @@
         <v>134</v>
       </c>
       <c r="E5" s="1">
-        <v>0.09196185286103542</v>
+        <v>9.196185286103542</v>
       </c>
       <c r="F5" s="1">
-        <v>0.9925925925925926</v>
+        <v>99.25925925925925</v>
       </c>
       <c r="G5" s="2">
         <v>2141898.624162417</v>
@@ -608,10 +653,19 @@
       <c r="K5" s="2">
         <v>103442.8700368614</v>
       </c>
+      <c r="L5">
+        <v>98.94667271041796</v>
+      </c>
+      <c r="M5">
+        <v>21647</v>
+      </c>
+      <c r="N5">
+        <v>161.544776119403</v>
+      </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:14">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B6" t="b">
         <v>0</v>
@@ -623,10 +677,10 @@
         <v>149</v>
       </c>
       <c r="E6" s="1">
-        <v>0.9780701754385965</v>
+        <v>97.80701754385966</v>
       </c>
       <c r="F6" s="1">
-        <v>0.2227204783258595</v>
+        <v>22.27204783258595</v>
       </c>
       <c r="G6" s="2">
         <v>40771.6852740134</v>
@@ -643,10 +697,19 @@
       <c r="K6" s="2">
         <v>5087.076865717208</v>
       </c>
+      <c r="L6">
+        <v>19.58294201441566</v>
+      </c>
+      <c r="M6">
+        <v>2082</v>
+      </c>
+      <c r="N6">
+        <v>13.97315436241611</v>
+      </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:14">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B7" t="b">
         <v>1</v>
@@ -658,10 +721,10 @@
         <v>3</v>
       </c>
       <c r="E7" s="1">
-        <v>0.02192982456140351</v>
+        <v>2.192982456140351</v>
       </c>
       <c r="F7" s="1">
-        <v>0.2</v>
+        <v>20</v>
       </c>
       <c r="G7" s="2">
         <v>2415.272480771408</v>
@@ -677,6 +740,15 @@
       </c>
       <c r="K7" s="2">
         <v>1753.365733305352</v>
+      </c>
+      <c r="L7">
+        <v>19.16882921247149</v>
+      </c>
+      <c r="M7">
+        <v>126</v>
+      </c>
+      <c r="N7">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
